--- a/relatorios.xlsx
+++ b/relatorios.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demik\Desktop\Aplicacoes\SQL_Server_Sakila\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53774F87-37F3-443E-A91E-E7D90C61C27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E32B81E-2F8A-4C16-9847-6B27B5FD1D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{B7B59DAD-A336-436D-8B13-C48459C8C9AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B7B59DAD-A336-436D-8B13-C48459C8C9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
     <sheet name="Filmes e Generos" sheetId="2" r:id="rId2"/>
+    <sheet name="Clientes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Quais foram os 5 gêneros mais alugados?</t>
   </si>
@@ -235,17 +235,29 @@
     <t>0,79 de correlação (alta)</t>
   </si>
   <si>
-    <t>Filmes mais e menos alugados</t>
-  </si>
-  <si>
     <t>nome_filme_genero</t>
+  </si>
+  <si>
+    <t>Filmes e Gênero mais e menos alugados</t>
+  </si>
+  <si>
+    <t>Melhor ator e atriz</t>
+  </si>
+  <si>
+    <t>Susan Davies</t>
+  </si>
+  <si>
+    <t>Visão dos Clientes</t>
+  </si>
+  <si>
+    <t>Cidade dos Clientes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +292,17 @@
       <name val="Rockwell"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -295,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -303,17 +326,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,15 +392,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -342,9 +430,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF993300"/>
       <color rgb="FF990000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCC0000"/>
     </mruColors>
   </colors>
@@ -867,13 +955,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1235,6 +1323,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7612-4A17-A870-CEF7AB02727B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1250,6 +1343,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7612-4A17-A870-CEF7AB02727B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1265,6 +1363,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7612-4A17-A870-CEF7AB02727B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1282,6 +1385,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7612-4A17-A870-CEF7AB02727B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1516,6 +1624,1170 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>7 Maiores clientes por alugueis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dados!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alugueis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="0">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.4777777777777777E-2"/>
+                      <c:h val="6.3888888888888884E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F6C9-49E1-8534-20CCBD1E6870}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="0">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.4777777777777777E-2"/>
+                      <c:h val="6.3888888888888884E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-F6C9-49E1-8534-20CCBD1E6870}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="0">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.4777777777777777E-2"/>
+                      <c:h val="6.3888888888888884E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F6C9-49E1-8534-20CCBD1E6870}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="0">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.4777777777777777E-2"/>
+                      <c:h val="6.3888888888888884E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F6C9-49E1-8534-20CCBD1E6870}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="0">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.4777777777777777E-2"/>
+                      <c:h val="6.3888888888888884E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F6C9-49E1-8534-20CCBD1E6870}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="0">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.4777777777777777E-2"/>
+                      <c:h val="6.3888888888888884E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F6C9-49E1-8534-20CCBD1E6870}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="0">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.4777777777777777E-2"/>
+                      <c:h val="6.3888888888888884E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-F6C9-49E1-8534-20CCBD1E6870}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dados!$D$27:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ELEANOR HUNT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KARL SEAL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CLARA SHAW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MARCIA DEAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TAMMY SANDERS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SUE PETERS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WESLEY BULL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dados!$E$27:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6C9-49E1-8534-20CCBD1E6870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="766522927"/>
+        <c:axId val="766524367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="766522927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766524367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766524367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766522927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Cidades com maior quantidade de clientes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dados!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>qte_clientes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dados!$A$24:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Aurora</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>London</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dados!$B$24:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46DD-47F2-9F0E-9D45B039CB01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="766096815"/>
+        <c:axId val="766097295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="766096815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766097295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766097295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766096815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1633,6 +2905,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3130,6 +4482,1014 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3240,16 +5600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3269,6 +5629,87 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114298</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323D1993-ABDE-42BC-82AC-307634B1EBFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C6AF47-7258-41EB-8057-1809035BE2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3576,8 +6017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCED840F-6FEF-4D07-816C-4739F1F69391}">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,16 +6035,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3619,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -3761,24 +6202,24 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="5"/>
+      <c r="D13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3797,12 +6238,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
@@ -3812,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>2</v>
@@ -3879,10 +6320,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="6"/>
       <c r="D22" t="s">
         <v>29</v>
       </c>
@@ -3920,11 +6361,11 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
@@ -4015,11 +6456,11 @@
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
@@ -4056,15 +6497,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D16:G16"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D16:G16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4075,266 +6516,414 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9750739-A7FB-4A0C-885A-8EA16EE2BCFD}">
   <dimension ref="D1:R32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:K21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="7"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="E2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="9" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
     </row>
     <row r="24" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
     </row>
     <row r="26" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
     </row>
     <row r="27" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
     </row>
     <row r="28" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
     </row>
     <row r="29" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
     </row>
     <row r="30" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
     </row>
     <row r="31" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
     </row>
     <row r="32" spans="8:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="M22:R32"/>
+  <mergeCells count="4">
     <mergeCell ref="E2:O4"/>
     <mergeCell ref="H9:K21"/>
+    <mergeCell ref="L22:R25"/>
+    <mergeCell ref="L26:R29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8ED9251-79AD-444B-A6B2-9D635A89C6FA}">
+  <dimension ref="E2:O16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E2:O4"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>